--- a/scrapapply/indeed/static/indeed/download/indeed_jobs.xlsx
+++ b/scrapapply/indeed/static/indeed/download/indeed_jobs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,2709 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Atlassian</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=cf2d8c8ae4f081fa&amp;bb=Anm0odmY_K01bpHd2sRwCuH6F9KzLHUG6TcQRmPs82VeT9cmNoum4xz5EZl0ODvzNLFk6kprElj6NE9PxKJlMQuS5X9dfqtCk4TjHneJIvuVo9sT9uYTLrRHClo52kc3&amp;xkcb=SoD367M3yBu5CnRgix0LbzkdCdPP&amp;fccid=e6d4ba9e2cfe7902&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BACKEND SOFTWARE ENGINEERS, JIRA ALIGN</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Remote in San Francisco, CA 94104</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Piper Companies</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=1ca79463925324f3&amp;bb=Anm0odmY_K01bpHd2sRwCoGpTyZEjneiDwYPUehw9rdsi2toXCm1VihuK4lL5McF5JnkN8VJJ1ymLadaF-qojQl-U0uEQSkU_1aNDCWz-Y1l01c3EZxJ2D80F61XYCim&amp;xkcb=SoBD67M3yBu5CnRgix0KbzkdCdPP&amp;fccid=fc68da685e8aa986&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Lead Full-Stack .NET Engineer</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=c7163738a22dd337&amp;bb=Anm0odmY_K01bpHd2sRwCiRo8dteScBqAySQzVHfmFs2SS7ZWBuqaL6vhBYLdfP9Do9UaArvAOVbMe7O3ziFYjaklK07QN3DbsBI4X9PyFAGJLCxoA28ltG03KCZoOn0&amp;xkcb=SoDe67M3yBu5CnRgix0JbzkdCdPP&amp;fccid=0d1386ca25efa609&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sr Software Engineer</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Lowell, MA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=4515947426807699&amp;bb=Anm0odmY_K01bpHd2sRwClGTFpfeRcyJlpK42VXSBdvfFAx4edC1rCfs9bcVSnS6HxGGBaR0RHrOo-gRFQidTMggJg-tJCbMTa42-PAm09ae1EsI5_kG2Jb9YVxEzlIN&amp;xkcb=SoBq67M3yBu5CnRgix0IbzkdCdPP&amp;fccid=2385f8ebf01f1b76&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Senior .Net Developer - Credit one Bank</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bank, NH</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>City of Miami, FL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=f3dc5125c44b849d&amp;bb=Anm0odmY_K01bpHd2sRwCnq6ywcGNTizwDICyo9ZSOyGaEM6p2T12s6pQwH_LU9qs8vh0AFqaxExdex0THunNr-uHfgTVl63J2Z5HVgytjCZ3yS8RJpXYJQLmlzEafFR&amp;xkcb=SoDk67M3yBu5CnRgix0PbzkdCdPP&amp;fccid=aea46bab548778a8&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PROGRAMMER</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hologic</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=5406b2de07ebf695&amp;bb=Anm0odmY_K01bpHd2sRwCuK1hIMw5MuSEkaLm7pDJPj4WlgkCp1kOT-OfQZSDnblzGzeUJDX8kkxwTVMZdlV30wAa_pWDPMR_Rrao4sH5oxO-WoWZ9_jHQ%3D%3D&amp;xkcb=SoBQ67M3yBu5CnRgix0ObzkdCdPP&amp;fccid=56fefe1ffa207dba&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sr. Software Engineer</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Marlborough, MA 01752</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECS Federal, LLC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=55164699aeb48449&amp;bb=Anm0odmY_K01bpHd2sRwCvpTH56-9_7iBDq1dpKP7D-1hYC1iozSRTKx3CLrOFy1nPdZDMdBic11l4jXOxtRALz7tg-nzWsrAhN7G7lgTbkBvfKsLE8jIioCZeLA2JJa&amp;xkcb=SoDN67M3yBu5CnRgix0NbzkdCdPP&amp;fccid=507d90809954b59d&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>.Net Developer</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Remote in Fairfax, VA 22031</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Leidos</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=c99e4d5a763f1179&amp;bb=Anm0odmY_K01bpHd2sRwCgdyLPa9mb28b2HhYUYcENmkeWnhiklwNHBS0-ZpQ2CoITeoMqOQxLVq_N8XjKNS-Lk-DXPF4vLF0qLsJ1-zMtHCAh2DrQxJWLZ9kcYs5Zzx&amp;xkcb=SoB567M3yBu5CnRgix0MbzkdCdPP&amp;fccid=8765a4045377753a&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>.NET / JavaScript Developer</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Baltimore, MD 21244</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>U-Haul</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=6c6d987920497665&amp;bb=Anm0odmY_K01bpHd2sRwCljdnsJLfgPeBVRzhl5B8h4v553k1Gck4J853lAErMViJFTNuRKwHcrHnFZgcEluJ9eaFismaUyomgrYZx0yPk0bunZscL3O6A%3D%3D&amp;xkcb=SoCQ67M3yBu5CnRgix0DbzkdCdPP&amp;fccid=2533ecec90dc66a3&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Software Developer</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>McAfee, LLC</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=91cd7cc9b3d37392&amp;bb=Anm0odmY_K01bpHd2sRwCkCk_MeUoOrc6BBq_9d6XRtZwbU9vEixQKS9L93B9ymPfLQHO_oYXfYjPeMF4NTAVMLB4qH52Vx_2ruCkWGZ7FARotNchFy7A9ykbXVl0JMb&amp;xkcb=SoAk67M3yBu5CnRgix0CbzkdCdPP&amp;fccid=800f11c47014effe&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Software Engineer, Backend</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hybrid work in Frisco, TX</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Epsilon</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=bb2ef346ee9302f6&amp;bb=Anm0odmY_K01bpHd2sRwCrGxMJFGRK-nTfOGBwtdI_RK72IcdDFsqqZglocRhvX1Nqkm3uBTK3QLSQnURrkdSDVzo0kdBDVkKhW7VL065TQDqh7oBFtdgw%3D%3D&amp;xkcb=SoC567M3yBu5CnRgix0BbzkdCdPP&amp;fccid=beb2b679d6e2402e&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Hybrid work in West Chicago, IL 60185</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>American Specialty Health Incorporated</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=ba920520de7f5611&amp;bb=Anm0odmY_K01bpHd2sRwChmHkU2wrXvgY0w899V5NJcF3xx3gCVzM14C44httMMqAu3jsXu7gy0ADlaYb0tvnbSVglsw-K1Mbv-uWMyFGF8u5FKPRgn0tHJ7QwJaL7c4&amp;xkcb=SoAN67M3yBu5CnRgix0AbzkdCdPP&amp;fccid=c9ca56bd9ca1524f&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Manager-Software QA (Remote)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>JPMorganChase</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=1cb7c77b1210a31d&amp;bb=Anm0odmY_K01bpHd2sRwCnq6ywcGNTizHan1pPF5WNJ4kihF0ogaROBtHFlC6zqjRTM4OxjzJygM52tZRK6wzWGclHvRJIRmp10drDyOEuDfNoujZe1Zjw%3D%3D&amp;xkcb=SoCD67M3yBu5CnRgix0HbzkdCdPP&amp;fccid=c46d0116f6e69eae&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Software Engineer III - Fullstack C#/.Net</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Plano, TX</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Liberty Mutual</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=719a15ee7aa847b0&amp;bb=Anm0odmY_K01bpHd2sRwCqIEw8Jbpcrf3gKBRI-FCvGnBw9ORzISTkSITuzmIoZTrB7I_SQFDhu52PvDkCi5rZNiCM2rqzr2J8QRIiRLJY45RUzgWGtK1w%3D%3D&amp;xkcb=SoA367M3yBu5CnRgix0GbzkdCdPP&amp;fccid=f33a9750898d12d4&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Solutions Engineer, Software</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Portsmouth, NH 03801</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>State of Wisconsin</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=770795929aaab9ec&amp;bb=Anm0odmY_K01bpHd2sRwCnQ2FcMhWHd9PfAyk6aMf8-vYsMjY6m6_FnsnmJxxikBIxRZ9Zc59pwH0xEzGQIUhaei4FFwqaKpRzfVXT4dZwqN935np2uT0A%3D%3D&amp;xkcb=SoCq67M3yBu5CnRgix0FbzkdCdPP&amp;fccid=382b064faa12254d&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Java Developer</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Madison, WI 53703</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MVP Health Care</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=68c8b6b3df7e318f&amp;bb=mm5lZZNe2_ZIesTrnQLWnSeul2pXx8ixlh66oVX5k2Yo3Ib17HyKTQWfskDPwFpuG7O5bhVi6kyCmIO_WRwAQL8-cdO-jjU7JaY78dkS_fu2i0xcyJQOREH2jg2wscba&amp;xkcb=SoBr67M3yBu2lIRO6x0LbzkdCdPP&amp;fccid=3d56b62cc4f2ef28&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Rochester, NY 14604</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HOUSING PRESERVATION &amp; DVLPMNT</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=63fa9df5f8ac09ef&amp;bb=mm5lZZNe2_ZIesTrnQLWnRBc7iSEHCNn_2esOCpWSOmrQXtair3I-LzyBCHAQN0Rmgh24l3R039jy1CWfM1r5D1-vxVZe6NA6x5ieeURxI10UuctDs9xxHUsZUlilIPV&amp;xkcb=SoDf67M3yBu2lIRO6x0KbzkdCdPP&amp;fccid=7690d1268f298c33&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Senior .Net Programmer/Analyst for the Office of HPD Tech</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>New York, NY 11201</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ECS Federal, LLC</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=1b61cc9ed21a8ebb&amp;bb=mm5lZZNe2_ZIesTrnQLWnQ4g-niWQEloQoMjxj700kDzlf9_ehlfiVO5I0SgGG9hvOifG_VVF3uX7D6XQwVxTEH1xlSwRLN76cvVUAQskzHCetu4kglzMXx6btebvKAe&amp;xkcb=SoBC67M3yBu2lIRO6x0JbzkdCdPP&amp;fccid=507d90809954b59d&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sr Software Developer/Technical Lead</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Remote in Fairfax, VA 22031</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Datanetiix Solutions</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=7cb62cce0d5b1a5f&amp;bb=mm5lZZNe2_ZIesTrnQLWndJncF4G_hYXb8iONBXYOlny0-6RrlZyElRfW9JtpznLjz90b7VJxOTd2PTKCvvXrDHMKnf-PiDCCPwWhAVx1Wo1487Q577FejUoJa8-F_Kx&amp;xkcb=SoD267M3yBu2lIRO6x0IbzkdCdPP&amp;fccid=4e2d97f2bba716d8&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DOT NET Application Developer</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Hybrid work in Oakland County, MI</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Piper Companies</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=cf72e63bba27967d&amp;bb=mm5lZZNe2_ZIesTrnQLWnTej_ON6w6C9d65Pr3S8DiJT1pcpqo2z0mVD6vYCG0zKWX0tijMSiHjQRFg2q_9AXhdORR59GGL9TobUGFme3niIZFnANueSYKXh9XrkAx8x&amp;xkcb=SoB467M3yBu2lIRO6x0PbzkdCdPP&amp;fccid=fc68da685e8aa986&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>WPF Software Developer</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Hybrid work in Malvern, PA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guidewire Software, Inc.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=338ab5b8acc55985&amp;bb=mm5lZZNe2_ZIesTrnQLWnW7QTGpcEtCa43YZBxkz64u-q0kMsuDz0mD5-TOwAlT1oLzdGpDLJJgbvOru1F4ha4AlP7YEn2T5yL8Tf6TKQbe4xD06Tn7Z3mnkQrwT-3J5&amp;xkcb=SoDM67M3yBu2lIRO6x0ObzkdCdPP&amp;fccid=be90d89fb010b0bf&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Software Engineer III - Guidewire Predict</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Hollstadt Consulting</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=a83e5369fb951820&amp;bb=mm5lZZNe2_ZIesTrnQLWnUa2goNOsY_ovpZ423WOUyFDPLyQphlzaA0-tL_HwV6EYuo0DtbpVu8HJA7x4-xNg_cWbSrD_PSX4zXQ2VVcu7fI22qZEPt4Ndb0zvmd7yDf&amp;xkcb=SoBR67M3yBu2lIRO6x0NbzkdCdPP&amp;fccid=c8332f2532ccf55f&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Remote in Minnesota</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Johnson &amp; Johnson</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=2a9a2e36123fe45c&amp;bb=mm5lZZNe2_ZIesTrnQLWnWAdbEnt4PwEsi5LAnTR1zJdlNMA9XWgViIDxfQxRyfwR5-sZpOON7-Q7X3_SS_DLwO2V7g8Zc64Xs7OVfbOw497v1DzhzSgCBWhRNjpeLWf&amp;xkcb=SoDl67M3yBu2lIRO6x0MbzkdCdPP&amp;fccid=0bed8e17bc113980&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Staff Software Engr, Enabling Tech R&amp;D</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Remote in Warsaw, IN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Nobl Q</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=a03516480a797682&amp;bb=mm5lZZNe2_ZIesTrnQLWnSQmlGA01YH2Njzc8wpKiqtJWkYAhN4QhiU_9JwlnxCR0TcKX0SQJ7NHIn6Arg2rrCaN-6y02iLyE3zyFWNqoH1vY6C7RdMHoJQf3s7MxGmh&amp;xkcb=SoAM67M3yBu2lIRO6x0DbzkdCdPP&amp;fccid=9c4faf4442f46cc9&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>.Net Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>First American Financial Corporation</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=fbf6c3a7638c1e4d&amp;bb=mm5lZZNe2_ZIesTrnQLWnb_lkHGjBs6h3QVVe1iXzm0bmAEMevAUF6ReFi1VhlzJyglIDWfWhvZO3dN7bjMwuXH9WbyJnn45ziuBbzyEABaS3TC1msWBjw%3D%3D&amp;xkcb=SoC467M3yBu2lIRO6x0CbzkdCdPP&amp;fccid=9e68c7dc9642eb81&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>(Remote) Senior Software Engineer - Multiple Openings</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Remote in Santa Ana, CA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Department of Administrative Services</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=4b4ab11dde7a1542&amp;bb=mm5lZZNe2_ZIesTrnQLWnWNqZV1yxqWzLl5dKhdfK-H4ZImpqyEIG0sg_Nd3x7lMOI_ivv1NAQcnij4zfxSwEAtdXz9OjLHYGJWxJyjk6MhcXrstR3pcOA%3D%3D&amp;xkcb=SoAl67M3yBu2lIRO6x0BbzkdCdPP&amp;fccid=b666f84c472fc273&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer (Information Systems Specialist 7)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Hybrid work in Salem, OR</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Health Advocate</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=ca5178df33d73faf&amp;bb=mm5lZZNe2_ZIesTrnQLWnWFpXE_zl-IadATMpPyh98LrU7zXdE4_zd2nTjn8UxU-8xoW7polYwTy6xPdFgTamuq169e8K9i7FtDlQuXOBBUGrS1i934CvXt_lzXk6yCi&amp;xkcb=SoCR67M3yBu2lIRO6x0AbzkdCdPP&amp;fccid=5a9463d313b7f4de&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Full Stack Analytics Developer</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Navitas</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=b57e794a1acbb9ac&amp;bb=mm5lZZNe2_ZIesTrnQLWnWxksAog2aZrEsZdrm_v9G5LwdWbftVic8Z3QFiqjirMo43gx8_jzW0BfnI3hKcBPZ9XiwBwDma9pnFP6YT16kCHKOZ_-vz9KA%3D%3D&amp;xkcb=SoAf67M3yBu2lIRO6x0HbzkdCdPP&amp;fccid=f034a6bc9bff26d8&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>25-3034 - API Developer (.NET Core 8/9) - Herndon, VA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Herndon, VA 20171</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Expleo</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=f5405faa2287a4dc&amp;bb=mm5lZZNe2_ZIesTrnQLWnZUjAnR8CcI4F7cLDy0hDnR7oyg6l3BCTLjQZncJRdoi0ho4caXEWR48OYqu4tT22qldvucosK3PoSecnjBZReiqqPyym3ZLpqCv_W6TVnv9&amp;xkcb=SoCr67M3yBu2lIRO6x0GbzkdCdPP&amp;fccid=8f5cb52d4dd4f2ad&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Full Stack Software Engineer</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Remote in Rochester, MN 55904</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>OneMagnify</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=f9a8e96e81b53e1c&amp;bb=mm5lZZNe2_ZIesTrnQLWnTNj69-aybfp7lHzN39cjXw4TAk7Zz_RL_pLxRhnAvWC5x-qozO2PG9FtiYMdeICC6h3lR7tT6Oap74puOB3AWKYIr_jyivSZQf31fXaXIbz&amp;xkcb=SoA267M3yBu2lIRO6x0FbzkdCdPP&amp;fccid=0d9ff1d5ccfcf884&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Detroit, MI</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Amentum</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=370cd1944b5010e0&amp;bb=Y_nDX6uIMWBbO1pXlVScC7nusZquAIEuf2kMJsbruKO5Qbnu6zvfYRIY9ncRFWkC79RK-v2o_eKnxKXCCLsE-HVgQkT33l7505VXepvHuDD3zqxRUeZTng2Pepr6wm1-&amp;xkcb=SoD167M3yBu03LRgix0LbzkdCdPP&amp;fccid=6cecc4f0e25b14e5&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Software Developer/SME</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Chantilly, VA 20151</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Firstsource Healthcare</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=c2b1f577e105d340&amp;bb=Y_nDX6uIMWBbO1pXlVScC9UEJKuCpfOctv29xBPdWqs7spGzQaTpCVipKvEP56D1PQCcIFcO2qifTn6kKfQWk5b4aAzDwfOa5f-Qa_xc0hmU39diYQG5MW8sPr5sZg-m&amp;xkcb=SoBB67M3yBu03LRgix0KbzkdCdPP&amp;fccid=5822a2554404d85f&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>GM Financial</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=018f84704bc23846&amp;bb=Y_nDX6uIMWBbO1pXlVScCzY_PpLC-XU0GpBMGj9VwrugdWmrGnmuuiJ8FL2LUxEhRMfBgbARH5E41VBN7aI1aGyHW2Izeil1aOmvNzG-w7s_KvLFjF1TNI8QctxrLLC2&amp;xkcb=SoDc67M3yBu03LRgix0JbzkdCdPP&amp;fccid=b6e80abbe732699d&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Software Development Engineer III - C# and Azure Cloud</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Hybrid work in Arlington, TX 76014</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AllianceBernstein</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=c87172d2c4ce8ad2&amp;bb=Y_nDX6uIMWBbO1pXlVScC9zij-L0kdfLHP1EBKkORZL3LoDrBTbATqPRQmCUbk7C-KuyUnkAYNPMfseMGhh-KIowNU4wIac9TGlt1pXXTJI2vLAQ3O3b_w%3D%3D&amp;xkcb=SoBo67M3yBu03LRgix0IbzkdCdPP&amp;fccid=b374f2a780e04789&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Programmer/Analyst</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Nashville, TN 37203</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SitusAMC</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=c9a03420a26675f1&amp;bb=Y_nDX6uIMWBbO1pXlVScC8X5dq8VKmKAsbHKwODfvbwYuCYZIGzbf-wvqPj7yZ7qcIH3CVJTRzpjpNqgs-TqLblSk0VVDy8mYRsNFjd3QWstR_elZ_RILpyCBDE23A9C&amp;xkcb=SoDm67M3yBu03LRgix0PbzkdCdPP&amp;fccid=a8115343013cba55&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Site Reliability Engineer - Remote US</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CloudIQ</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=23437c676e25c16b&amp;bb=Y_nDX6uIMWBbO1pXlVScC0gJ7KoRxgiARAMWbkCvWuvrGD2neDiweSflRSuPl0uKrrlvQNOJZ72mLNRehD4eU8fO6sTtha_K13WJxNdoEZBWZOxe_J-ShuqhRciuN_0I&amp;xkcb=SoBS67M3yBu03LRgix0ObzkdCdPP&amp;fccid=9a7bbe34779b96b5&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Senior Software Engineers</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Issaquah, WA 98029</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Publix</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=1370f34cfd7abfef&amp;bb=Y_nDX6uIMWBbO1pXlVScC69UfkJQ2RKbsvIVqN2pSwMolvhH_MvwIKH2LgshtTF1yLkLLAXlN0HBSFa1ImIHCLUGuMahu8dAWXP5JYFdjeWWf-1EKxAlhbP24ckvqGY0&amp;xkcb=SoDP67M3yBu03LRgix0NbzkdCdPP&amp;fccid=8e5415c099aa948c&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Quality Assurance Engineer - POS</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Hybrid work in Lakeland, FL 33815</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Grafana Labs</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=280d31e650bd4c19&amp;bb=Y_nDX6uIMWBbO1pXlVScCx3FUlCMGVOwaSHZdKXkrotRdVn3T_67zyMOAVOo7okV5oHrVBUq6uN_iauWzIHmGPkhsMJRCFl9YmQyI2rvMebLai7qaWkL62SwSyajpZc7&amp;xkcb=SoB767M3yBu03LRgix0MbzkdCdPP&amp;fccid=d88f60fd1e08cf4f&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Senior Backend Engineer, Grafana Databases PyroscopeNew</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Emergent Software</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=e16ed85ff8a7af24&amp;bb=Y_nDX6uIMWBbO1pXlVScC34viVcYg2EFAEfbEqoGZilBkMilF2GHKtvjFoYOx3xfnDYRgEtHZoYReelugSd0Da171QWQEwuPasdioTsJ-jvpXCoLJt6eXZcaZiq8PCLA&amp;xkcb=SoCS67M3yBu03LRgix0DbzkdCdPP&amp;fccid=f71d2cce2ac2a758&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer (C# and .NET), Latin America</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Medtronic</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=8ffb92b2a2206660&amp;bb=Y_nDX6uIMWBbO1pXlVScC1i4z5AwMfx8vy7e8uJ7GqIBsSx_9TkEPH_GHsr0qGqMswITc2pREJo4jv-I5VZNdfpBO8zpzCSGLB5PPKRZVQWWQxEXI4vttQ%3D%3D&amp;xkcb=SoAm67M3yBu03LRgix0CbzkdCdPP&amp;fccid=f06a4d05bf5510ec&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Principal Software Engineer (C# / .NET) - Cardiac Rhythm Management</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Mounds View, MN</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Verisk</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=77be5642fa758610&amp;bb=Y_nDX6uIMWBbO1pXlVScCwXhKteeAFgvQlH8jiPDDpJ3v_jEREwn3PQG5k5D4h72cQ9EOLUE7o_plJgNra0u9DoLp1VCLoxvKpZL_E-E96s09f0gENaa3DHopCTuEiye&amp;xkcb=SoC767M3yBu03LRgix0BbzkdCdPP&amp;fccid=d621f9a5603cfedd&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Senior Software Developer</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Hybrid work in Jersey City, NJ</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>McAfee, LLC</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=9423a811f34dfce1&amp;bb=Y_nDX6uIMWBbO1pXlVScCzFFKV44rjjIFxlbwSWG4Cyin9rJ2L2bCCvXjrQus1lqSJTFlj2FVmtoSuCpL_MM-JOpJ7lyYV9lpr5UpoMi-SX2UJlRXfWUYU0C-icFMCDA&amp;xkcb=SoAP67M3yBu03LRgix0AbzkdCdPP&amp;fccid=800f11c47014effe&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sr. Software Engineer, Backend</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Hybrid work in Frisco, TX</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>USC</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=0303378934b5f09a&amp;bb=Y_nDX6uIMWBbO1pXlVScC31U_In5AhyzcNJwpAcBcY0X6c0v6iVU3TCtzn7rpppWxeTNlQFl7ykRiUdeWnNyPcPy62OtkAjadYqTLlUQBcKfnIy3CVIRyg%3D%3D&amp;xkcb=SoCB67M3yBu03LRgix0HbzkdCdPP&amp;fccid=7455773bace145da&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Senior Web Developer</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Los Angeles, CA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Verisk</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=0ff392791d050603&amp;bb=Y_nDX6uIMWBbO1pXlVScC5d5lZHlQLE15cqtYZ_WL-wmGW8XGe83_OS64MY1anWqDrjY-9OT6TSmcEtheC0sSCpcyuT4gULI20pz0KWmfonljdr_Xj_CkuRZo0-7kHoK&amp;xkcb=SoA167M3yBu03LRgix0GbzkdCdPP&amp;fccid=d621f9a5603cfedd&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Software Engineer III</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Hybrid work in Boston, MA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Kinder Morgan</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=c45f4e37b0702a65&amp;bb=Y_nDX6uIMWBbO1pXlVScC2SZ9SRWvTF2wfT9ed_onCoP_agaxzA_hNgjxJ8408Yr_7rV5aiLku2ro_kUeKGcfE87tFasZ6aPYaX4OO9HQnRQuZ5Qzxpxvg%3D%3D&amp;xkcb=SoCo67M3yBu03LRgix0FbzkdCdPP&amp;fccid=84982d5610f302fe&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Application Developer Analyst</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Houston, TX 77002</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=5919e63150eed428&amp;bb=1LoPpyUmj2qimIpVq3MKJ5A3lWa8MRt493hbddEVc79DGYjC6Uc1MI1b3wMr-1ki7IIaKc5JBdEudQQx-WHSQOBB8GohkR5HFf1NhhBnyubEJPJQYopx2A%3D%3D&amp;xkcb=SoCO67M3yBuyxOxgiB0LbzkdCdPP&amp;fccid=38eb72d608d80c79&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025077 Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Hybrid work in Chicago, IL</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Intellibee</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=8f59fcf53cc118ae&amp;bb=1LoPpyUmj2qimIpVq3MKJ21rfq7KMtytLoVZKpGMrJvi1c7icSgP5TCaAh3RfuOImDoO1yE0NFnvVBQj_5u7h1ZuoHdgW_u2GtOAFrKpKYSOH4Q9E0v0zz5CnUykf3Jm&amp;xkcb=SoA667M3yBuyxOxgiB0KbzkdCdPP&amp;fccid=d99d618a0bcbc8ee&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>.Net Developer</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Hybrid work in Pontiac, MI</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Ocean Blue Solutions</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=d8284002902bff26&amp;bb=1LoPpyUmj2qimIpVq3MKJ0zy3tfW3DDWSwv7v_0X1tTnflpIYOHngcxs-qgzE1Ua8T57Dz1R-HKNgSSyKk3jEgKVAosd2UzmQzpzQRkR2uM5UEn2aCZ6Xpwe60ZAkeKw&amp;xkcb=SoCn67M3yBuyxOxgiB0JbzkdCdPP&amp;fccid=984a78ed3124dad1&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Senior Azure Dotnet Developer - Onsite, OH</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Columbus, OH</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Juniper Networks</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=70ea47ea73418bb9&amp;bb=1LoPpyUmj2qimIpVq3MKJ4pLjAqAUj4RRMURT8qsaKv6-_TJO0FhOok3S_W0j8wiLy8VWEMdZKuZdBbx3KR-Y6rgXQLQY6f1uVi5I8rjehEbsYoPDIl1iA%3D%3D&amp;xkcb=SoAT67M3yBuyxOxgiB0IbzkdCdPP&amp;fccid=e9e363d6332bc1cd&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>63412R-Software Engineer 2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Sunnyvale, CA 
+(West Murphy area)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Citi</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=862e633ae56b6541&amp;bb=1LoPpyUmj2qimIpVq3MKJ4pLjAqAUj4RuiYuvC1RA8Pi8IdY9Gpdq0W6rXMyqGxf2lAqiORsqQz6S9YOX409psPcY2o3VAD-FXxjXPYlVQgbqk1i4xPheA%3D%3D&amp;xkcb=SoCd67M3yBuyxOxgiB0PbzkdCdPP&amp;fccid=5bcd1ef0a7f4fb99&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>User Interface Developer - Equity Finance</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Tampa, FL</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Atlassian</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=cf2d8c8ae4f081fa&amp;bb=dFJnuNmoruUW3crL2-d018thX0vHBcJmA5-wpmQBF-qDcXWrHCT9O1_16eh0mnt6j__Qzm2XlUx2CbWzdgrgdaofMaKLlARKH9_fbWBnIT1nhV6DcQ2SMAxvNmpDDzc6&amp;xkcb=SoBB67M3yBuw7aynDZ0LbzkdCdPP&amp;fccid=e6d4ba9e2cfe7902&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BACKEND SOFTWARE ENGINEERS, JIRA ALIGN</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Remote in San Francisco, CA 94104</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>UKG</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=c7163738a22dd337&amp;bb=dFJnuNmoruUW3crL2-d018u0mFjGUTq3HVK0k65zwfq-x5Tw9YnJiIj73Jd_fa3bEvNx_66EtuhnjpUEn2fAB5e0efbEzmOEVJ9_RjSffVwi3tr26EGY4IKpHm2NaEhO&amp;xkcb=SoD167M3yBuw7aynDZ0KbzkdCdPP&amp;fccid=0d1386ca25efa609&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Sr Software Engineer</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Lowell, MA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Piper Companies</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=1ca79463925324f3&amp;bb=dFJnuNmoruUW3crL2-d015l6gx7QN0bmkLV81CgiabG_UWkLFL0_kro6x6ACQxx79n4aHTD61-qxVo1LF2DeVoN8dWYSc8yXDfZkH5k2H_hNTYWmPPjWDoYedRzibQlc&amp;xkcb=SoBo67M3yBuw7aynDZ0JbzkdCdPP&amp;fccid=fc68da685e8aa986&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Lead Full-Stack .NET Engineer</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>JPMorganChase</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=1cb7c77b1210a31d&amp;bb=dFJnuNmoruUW3crL2-d014PS57_9IkpHbt_3j1kA72AvSjRQPFVUNjAOKGDFkB4YRio6cV24aT6oS1X5GfHpXxqgX9cIupKU00YI3lXH8rITbYYySZ89rw%3D%3D&amp;xkcb=SoDc67M3yBuw7aynDZ0IbzkdCdPP&amp;fccid=c46d0116f6e69eae&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Software Engineer III - Fullstack C#/.Net</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Plano, TX</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ECS Federal, LLC</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=55164699aeb48449&amp;bb=dFJnuNmoruUW3crL2-d0156f0CUFVPaJdiu6-AzNAgjUgG75ZETUPZfDm28pegTSb6lYjeEOE3YI3UGf1gusPQRMjGD-w8uQPxpOykeW-tJKpsAhf8qqrqZasGKE3C7P&amp;xkcb=SoBS67M3yBuw7aynDZ0PbzkdCdPP&amp;fccid=507d90809954b59d&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>.Net Developer</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Remote in Fairfax, VA 22031</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Hollstadt Consulting</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=a83e5369fb951820&amp;bb=dFJnuNmoruUW3crL2-d0108Jpq77bzfZE1zZeS7UMl1K9kPkaPwZbYHXDrENO4gftYKBDSfDbUqmRrxdTr7mUo1RLARSheexsbhAw88VKp1hb5dZHG5gJ_AKr9Hj_Vh4&amp;xkcb=SoDm67M3yBuw7aynDZ0ObzkdCdPP&amp;fccid=c8332f2532ccf55f&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Remote in Minnesota</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=4515947426807699&amp;bb=dFJnuNmoruUW3crL2-d017oN-gz6qU4uMlCYZk1Yn8gpdCosKYz4zj5sveio4v8RRvq_USWsjQifnE0NyGbegoHpczs0ki1av59jKSz8IkEgatmJIvHWGfkmQVruurxX&amp;xkcb=SoB767M3yBuw7aynDZ0NbzkdCdPP&amp;fccid=2385f8ebf01f1b76&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Senior .Net Developer - Credit one Bank</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Bank, NH</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>American Specialty Health Incorporated</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=ba920520de7f5611&amp;bb=dFJnuNmoruUW3crL2-d016vYCgWMUn1-TGefU19dEvhccr4OGbbDwD3y-EtrK0qteI9ApmEh23s4JEzLPYRrgwoJZa4NiYgx91WUYKN0Q5YxLqjlcwi2b46cO-EzCdbM&amp;xkcb=SoDP67M3yBuw7aynDZ0MbzkdCdPP&amp;fccid=c9ca56bd9ca1524f&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Manager-Software QA (Remote)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hologic</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=5406b2de07ebf695&amp;bb=dFJnuNmoruUW3crL2-d010bvCH4GoXpt5cMbk7mpUOk-MYmHNUlqaoE1pU23xkWCYlgDW8CLJCBm5iM35RYnYgQ0E6ahsoGPhua_j3NJLoYI_6Uy_baPqQ%3D%3D&amp;xkcb=SoAm67M3yBuw7aynDZ0DbzkdCdPP&amp;fccid=56fefe1ffa207dba&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sr. Software Engineer</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Marlborough, MA 01752</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>HOUSING PRESERVATION &amp; DVLPMNT</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=63fa9df5f8ac09ef&amp;bb=dFJnuNmoruUW3crL2-d01wC3VGlPlI6o36IhEu3eB9ebr9sDOfynJfOYWap0MH0DNxqKeZtJ14xWJuVce489VbqFrj-qZG688LdWcI6kIELE-zxQ2jn4RkqazVjYmr05&amp;xkcb=SoCS67M3yBuw7aynDZ0CbzkdCdPP&amp;fccid=7690d1268f298c33&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Senior .Net Programmer/Analyst for the Office of HPD Tech</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>New York, NY 11201</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Liberty Mutual</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=719a15ee7aa847b0&amp;bb=dFJnuNmoruUW3crL2-d01xikmyLT5XYNnahYAttXFnizvQp-7h1nPFkyT5PUPw7_2Xhkhaj3ioNl3Rw0mwdMWKqGmv3OVdyMoGutqFybwOaP-soZjNbEUw%3D%3D&amp;xkcb=SoAP67M3yBuw7aynDZ0BbzkdCdPP&amp;fccid=f33a9750898d12d4&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Solutions Engineer, Software</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Portsmouth, NH 03801</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ECS Federal, LLC</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=1b61cc9ed21a8ebb&amp;bb=dFJnuNmoruUW3crL2-d011s7vhB-_ivU7vQnxdZR4yvZStBs5Hb6KA1SMZc8CfOXDBhk9cj9_nta-OAcP54MzA7b8LGSjd9L6a62mDvUwEDHu8snQ0sR2qMunL9Oo668&amp;xkcb=SoC767M3yBuw7aynDZ0AbzkdCdPP&amp;fccid=507d90809954b59d&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Sr Software Developer/Technical Lead</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Remote in Fairfax, VA 22031</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Amentum</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=370cd1944b5010e0&amp;bb=dFJnuNmoruUW3crL2-d017REedL5yhdNBESwW-0z8toqKm4ZJxtZwsiyEGraLRHklZYkHzkronA9D2uC5mWLOcTux0FACKKj3tTfsDHaLvBYEE0-BlK7bFPTr6xpqzKD&amp;xkcb=SoA167M3yBuw7aynDZ0HbzkdCdPP&amp;fccid=6cecc4f0e25b14e5&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Software Developer/SME</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Chantilly, VA 20151</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>McAfee, LLC</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=91cd7cc9b3d37392&amp;bb=dFJnuNmoruUW3crL2-d011jkdkTolweDF0OIP8GsVzJrMjGsSs-cVmy9PgBRTn5uSa8xvxe8-pPA2xc6u2wm1DBz4xc4RwIhStAaw6Nt8vdrzh6cGcV11Qf_7H2Y0LO7&amp;xkcb=SoCB67M3yBuw7aynDZ0GbzkdCdPP&amp;fccid=800f11c47014effe&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Software Engineer, Backend</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Hybrid work in Frisco, TX</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Expleo</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=f5405faa2287a4dc&amp;bb=dFJnuNmoruUW3crL2-d01_a9CuzX7mJVeggs9167aqA1qRy22CGyF6SZaHwsgqSdbXHEryACvCj_Kkj4TEFte8MNfAwVNQr6y8WvPWwR-rQXRK3sPerYnX1UlHzBfsN2&amp;xkcb=SoAc67M3yBuw7aynDZ0FbzkdCdPP&amp;fccid=8f5cb52d4dd4f2ad&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Full Stack Software Engineer</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Remote in Rochester, MN 55904</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>GM Financial</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=018f84704bc23846&amp;bb=yv8MWeU_nzrXIgRoncrW3PP1L6iQd8iEvLirjI2dGIOa1IOFOty74yYDnd3rBjPCfa3VXg292DE5sy7y8_dt6HWXDCpnhlLHNsonZFOaDA2ddlGpi0wB3wV1rktvvkdL&amp;xkcb=SoC767M3yBvOXpxOGZ0LbzkdCdPP&amp;fccid=b6e80abbe732699d&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Software Development Engineer III - C# and Azure Cloud</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Hybrid work in Arlington, TX 76014</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Leidos</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=c99e4d5a763f1179&amp;bb=yv8MWeU_nzrXIgRoncrW3K78PXf4I6tVV5iN6-BPpk85hnbJRFb21XFeT6D2cTsa4iflUUHlagECXX7kBT9fTaBV_fv-F_YHIkoTJuuB2t5t69gbOe0TD1hTRl1IoWmM&amp;xkcb=SoAP67M3yBvOXpxOGZ0KbzkdCdPP&amp;fccid=8765a4045377753a&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>.NET / JavaScript Developer</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Baltimore, MD 21244</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>U-Haul</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=6c6d987920497665&amp;bb=yv8MWeU_nzrXIgRoncrW3OyrpEBlzyojScAtv8Itv4tXODZk-uTLKqUgnJa7sg5K2KWLHZhDybZwES9kAN1XhpoBap3upHKr_ju1-YzAhs8Kih8IK6nBPw%3D%3D&amp;xkcb=SoCS67M3yBvOXpxOGZ0JbzkdCdPP&amp;fccid=2533ecec90dc66a3&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Software Developer</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Johnson &amp; Johnson</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=2a9a2e36123fe45c&amp;bb=yv8MWeU_nzrXIgRoncrW3JLc0WIoXh5DdSFkmCF5sUHhhmz5FmJqefsqNAsneCd1Fg7k937Wyst397SvuitS3-9fOqPucGxz-WDYr51nHzcmKHNW6Pr7MO6PUs9XD2AE&amp;xkcb=SoAm67M3yBvOXpxOGZ0IbzkdCdPP&amp;fccid=0bed8e17bc113980&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Staff Software Engr, Enabling Tech R&amp;D</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Remote in Warsaw, IN</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Navitas</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=b57e794a1acbb9ac&amp;bb=yv8MWeU_nzrXIgRoncrW3J_DAbbmT9nAVioa2oafD1W5MdzQN10DJ8w_Snc9aGwmvwozEi7jyBAF4AEoAH4Qj7L8-i5OZNh_0kC5lNJyxpbznRRqEuuhvA%3D%3D&amp;xkcb=SoCo67M3yBvOXpxOGZ0PbzkdCdPP&amp;fccid=f034a6bc9bff26d8&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>25-3034 - API Developer (.NET Core 8/9) - Herndon, VA</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Herndon, VA 20171</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Publix</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=1370f34cfd7abfef&amp;bb=yv8MWeU_nzrXIgRoncrW3Arrw18lGiqFs9h1K5anBCFn9A2Rb_G3PoDCFlWeRufejP1om6t4OzkK22SKFWQx6x9IVMKhPIpRixlHXipseBITKj8O5zYBdRMK0FpVhRY4&amp;xkcb=SoAc67M3yBvOXpxOGZ0ObzkdCdPP&amp;fccid=8e5415c099aa948c&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Quality Assurance Engineer - POS</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Hybrid work in Lakeland, FL 33815</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SitusAMC</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=c9a03420a26675f1&amp;bb=yv8MWeU_nzrXIgRoncrW3MqoaGysLz0Xrk2osB8F2xIAWYnZBfnFLVC3TovvjdYLPVx_ERIUup6BKLsaSR9bT9uW0WUgKJ6VPlmD2ttKtYa51qBnD2YPLgtipU-CYIYb&amp;xkcb=SoA167M3yBvOXpxOGZ0MbzkdCdPP&amp;fccid=a8115343013cba55&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Site Reliability Engineer - Remote US</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Epsilon</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=bb2ef346ee9302f6&amp;bb=yv8MWeU_nzrXIgRoncrW3LF1-2f_XfpNslFvYbxuLRxl4bUUzD5VDMdHSO4Kuh6Ta4Mem_5vh9UF0-eAtJCMjg88hw1Z2XIjuzLXYh5xibBPtgJoKvZjIw%3D%3D&amp;xkcb=SoDc67M3yBvOXpxOGZ0DbzkdCdPP&amp;fccid=beb2b679d6e2402e&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Hybrid work in West Chicago, IL 60185</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Firstsource Healthcare</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=c2b1f577e105d340&amp;bb=yv8MWeU_nzrXIgRoncrW3KCHi0NNwgyOEexBchn-m-HMAkd50fDVdofqJhAPKIw-G_-XFFFhU4DuDkVbSBExV6J2v9xmgJeFuxfCfpFQ_AUOSQhavHrTc-PjjXZHUSzI&amp;xkcb=SoD167M3yBvOXpxOGZ0BbzkdCdPP&amp;fccid=5822a2554404d85f&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>OneMagnify</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=f9a8e96e81b53e1c&amp;bb=yv8MWeU_nzrXIgRoncrW3OnRGGpzTze1bHzP2eKqIeUEfSYkjOiORyyq4cuA96GayGPLBL9udyulCEIiRHTc0uVMURoMfoQPe3iK3WbhsZqEzws2cO_RLVkUqD9ZAPcU&amp;xkcb=SoDP67M3yBvOXpxOGZ0HbzkdCdPP&amp;fccid=0d9ff1d5ccfcf884&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Detroit, MI</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Nobl Q</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=a03516480a797682&amp;bb=yv8MWeU_nzrXIgRoncrW3Kl4KB_ZZZQay6qE9qD4Eo5F04Cn5AoGJsjO30WOgRPlncuGxeX8i_4PUn4IhZ4gvNgOx1cKUC6pHR1thapqLiDNp0uRP_dyG4z064fP4w5x&amp;xkcb=SoDm67M3yBvOXpxOGZ0FbzkdCdPP&amp;fccid=9c4faf4442f46cc9&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>.Net Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Health Advocate</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=ca5178df33d73faf&amp;bb=yv8MWeU_nzrXIgRoncrW3M9BsLN9iUXWHuZh9l0b1j2EbP9TLNPvRUbiFmcRpIreqXjcPZWqNF7wGN2CCekjqx_1BZuUbFe_pxMFyvtg8Rb3rsxPnfO2yOvUKYQ2PkWW&amp;xkcb=SoBS67M3yBvOXpxOGZ0EbzkdCdPP&amp;fccid=5a9463d313b7f4de&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Full Stack Analytics Developer</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Datanetiix Solutions</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=7cb62cce0d5b1a5f&amp;bb=yv8MWeU_nzrXIgRoncrW3FR_B_b3PUT0oK031WpURUPY_ol9HBELMMCeJ63t74mjxtU6TTJ_TI-yMuNm1Rfs2LrbvTcqZcId-kb_9lZSHpcTJm0CrJIjSbBBy3L9SU7S&amp;xkcb=SoB167M3yBvOXpxOGZ0bbzkdCdPP&amp;fccid=4e2d97f2bba716d8&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>DOT NET Application Developer</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Hybrid work in Oakland County, MI</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Guidewire Software, Inc.</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=338ab5b8acc55985&amp;bb=yv8MWeU_nzrXIgRoncrW3H3zi-jaG2oX0cW8N2FUtjf49uis0jHaGaluFaJLdPTaVa7D23U_rmTS-hudgallBtzxGbPJhtUvXOXzGIAlmpcvf1UGKn29egeEPDFX_Csq&amp;xkcb=SoDo67M3yBvOXpxOGZ0YbzkdCdPP&amp;fccid=be90d89fb010b0bf&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Software Engineer III - Guidewire Predict</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Grafana Labs</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=280d31e650bd4c19&amp;bb=yv8MWeU_nzrXIgRoncrW3AdEa2VTsMsI3yUdTh-ZZxQ6PM0XKHZ4TS6w_qjWXHyMMgIkbY-i5TioO5hopJNkp6VbJ0ZqsXDw6ERCpP1WlMSPj8cjE2blAlGxIMvlSPW0&amp;xkcb=SoDS67M3yBvOXpxOGZ0ebzkdCdPP&amp;fccid=d88f60fd1e08cf4f&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Senior Backend Engineer, Grafana Databases PyroscopeNew</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>CloudIQ</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=23437c676e25c16b&amp;bb=ed_D3ruTTXjIKA0xREV7GrAxn7SA3vhUZcnLiLUAR6qMvitXHbtJZWEtJZmatK_Cwsu8lUqzAefDgxbw2PsFfZ7UQGdmrN0Gale1oiQqvt6S-CiHVZsm4Ln76Vd6oWoJ&amp;xkcb=SoBQ67M3yBvMrRxgi50LbzkdCdPP&amp;fccid=9a7bbe34779b96b5&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Senior Software Engineers</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Issaquah, WA 98029</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>First American Financial Corporation</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=fbf6c3a7638c1e4d&amp;bb=ed_D3ruTTXjIKA0xREV7Gqu7vGkGTQBkuDnpcqg2uUAmyp0x8FOF48iV1-1Knl_O89Ljb3mfmiQ3waXKbDPy93DyeEHBXL-tVzDl5i-QOljyszzx2dZ-IQ%3D%3D&amp;xkcb=SoDk67M3yBvMrRxgi50KbzkdCdPP&amp;fccid=9e68c7dc9642eb81&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>(Remote) Senior Software Engineer - Multiple Openings</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Remote in Santa Ana, CA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Verisk</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=0ff392791d050603&amp;bb=ed_D3ruTTXjIKA0xREV7GnMUvNe4v4dd4S9OCqWyMb8UBEFu-zMlF200eLa303yZFjO83KuEDFg8XTL50URCttwADTjcLJZo97S9ScQyy9helZZEwFEzZLWKhu8OpgVH&amp;xkcb=SoB567M3yBvMrRxgi50JbzkdCdPP&amp;fccid=d621f9a5603cfedd&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Software Engineer III</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Hybrid work in Boston, MA</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>City of Miami, FL</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=f3dc5125c44b849d&amp;bb=ed_D3ruTTXjIKA0xREV7GnVlyh7V7dYdXw3TC62-djbnDGw2wsafwQVHwy1qwzj4CITRDr5a_QB8u2lIe1C8X5mqfvHcEHHUtXpFOF5Xcq7Cgvhu0Ny47O_l5L6CZpHQ&amp;xkcb=SoDN67M3yBvMrRxgi50IbzkdCdPP&amp;fccid=aea46bab548778a8&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>PROGRAMMER</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Emergent Software</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=e16ed85ff8a7af24&amp;bb=ed_D3ruTTXjIKA0xREV7GoxAcocziwig5SQSmEfKB2AkwJGsex3wDVz-yIShkqTBlKIZxssQnuT1Yb2HXePCV3zldz-qaIS2_iQxecyf5MWQuQPbv3HyTbRcpSv_DF-F&amp;xkcb=SoBD67M3yBvMrRxgi50PbzkdCdPP&amp;fccid=f71d2cce2ac2a758&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer (C# and .NET), Latin America</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>AllianceBernstein</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=c87172d2c4ce8ad2&amp;bb=ed_D3ruTTXjIKA0xREV7GjvckxkFBxLR67y0kG9E1Rh4fIu9IQd5_DYpkpMB5DkGgh4ne7FYSYo3hgt1bV1TGdwHop1oz-yDT3i1tyvEsM-XepWGUA8Lmw%3D%3D&amp;xkcb=SoD367M3yBvMrRxgi50ObzkdCdPP&amp;fccid=b374f2a780e04789&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Programmer/Analyst</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Nashville, TN 37203</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Medtronic</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=8ffb92b2a2206660&amp;bb=ed_D3ruTTXjIKA0xREV7GnD0KdVe4q3zmvXM6YjaQZcaU7n2eDgH1OnPGlzHbu-5DwDXqK7_Tisc2yJTpp3fOUqyE7rcOoOin7XCIc4nvYVzQKKi_y1ntg%3D%3D&amp;xkcb=SoBq67M3yBvMrRxgi50NbzkdCdPP&amp;fccid=f06a4d05bf5510ec&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Principal Software Engineer (C# / .NET) - Cardiac Rhythm Management</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Mounds View, MN</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>State of Wisconsin</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=770795929aaab9ec&amp;bb=ed_D3ruTTXjIKA0xREV7GrjTrJpktOuUicM6qob_hpPbVtjqfGfC0y4td7a4Aowm_u7S34Tt57PLabbvULzXROY3IY82_oShJnNiZL3WRgm3Wm8iwhOhng%3D%3D&amp;xkcb=SoDe67M3yBvMrRxgi50MbzkdCdPP&amp;fccid=382b064faa12254d&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Java Developer</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Madison, WI 53703</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Nobl Q</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=a6929f39891acfef&amp;bb=ed_D3ruTTXjIKA0xREV7Gpk7l-nvywN4q51jQ9CWxrNAYwAsoGioQLbdpDWqV97YtxYdja4IS38mejX5FUwWr9RiGgCPRZJMaIvKg_WtpG4svu2WUU6t1CZsBXgyHK-6&amp;xkcb=SoA367M3yBvMrRxgi50DbzkdCdPP&amp;fccid=9c4faf4442f46cc9&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>.Net _Backend Developer</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Kinder Morgan</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=c45f4e37b0702a65&amp;bb=ed_D3ruTTXjIKA0xREV7GplgXL1RLiOPErVRu-JZZaNLk_OShMjEfs7d_gwU1yBfOF2N0bGCHM-g8q13aQKJPs8DaD6NnuQYNgcuyH3zDIXI1X-VNcT8EA%3D%3D&amp;xkcb=SoCD67M3yBvMrRxgi50CbzkdCdPP&amp;fccid=84982d5610f302fe&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Application Developer Analyst</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Houston, TX 77002</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Piper Companies</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=cf72e63bba27967d&amp;bb=ed_D3ruTTXjIKA0xREV7GvEu6RkEq3lcfVkuor-jA6cfn7MeIQdnyXybjj02ENWdOT2qA4ccETdwNM0_Fzp6IJCuMIect55UzKi-9GWNMcXEUr3z0cw3g-7e_-jCE6vB&amp;xkcb=SoAe67M3yBvMrRxgi50BbzkdCdPP&amp;fccid=fc68da685e8aa986&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>WPF Software Developer</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Hybrid work in Malvern, PA</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Department of Administrative Services</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=4b4ab11dde7a1542&amp;bb=ed_D3ruTTXjIKA0xREV7Gmeg0q6-X7okHhdZNQxwbfuLgDXLLmCJGKjKXiUCYMr3d3sCBvQuYJMgZW6yrZZ3smzMgX6Q3_q-EpHhyH6Z3r9rH_eawiKBMw%3D%3D&amp;xkcb=SoCq67M3yBvMrRxgi50AbzkdCdPP&amp;fccid=b666f84c472fc273&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer (Information Systems Specialist 7)</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Hybrid work in Salem, OR</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>McAfee, LLC</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=9423a811f34dfce1&amp;bb=ed_D3ruTTXjIKA0xREV7GqeS4k0gfL7CKLzRopQ77yL2SS0RVAHBaaGbKk6ejwYcQfuQ_2ClZ61T9avkpSRT4SINVisJM9wSMXnIrNg9Wzeb0_dUrmlLl36GB45PWZXb&amp;xkcb=SoAk67M3yBvMrRxgi50HbzkdCdPP&amp;fccid=800f11c47014effe&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Sr. Software Engineer, Backend</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Hybrid work in Frisco, TX</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=9b4c06da6c4b25b2&amp;bb=ed_D3ruTTXjIKA0xREV7Goyd5eUuNt0A09rVz-WiWhq65Z_jYy1b26eE3bMV0ic93-WJ9MfyMkGYKaYAY9BllHPMGET9nJVJgNEvMPBMXF-dkPMdFw8uGw%3D%3D&amp;xkcb=SoCQ67M3yBvMrRxgi50GbzkdCdPP&amp;fccid=a5b4499d9e91a5c6&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Software Engineer, Sustainability Data and Tech</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>New York, NY 
+(Chelsea area)</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>USC</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=0303378934b5f09a&amp;bb=ed_D3ruTTXjIKA0xREV7GiahoLGaJmtc0RfI3GvDZN6dBd6OXypG7HGmVs25XT6awvjePB4xW-jtom1cD5NysOeTGxcKyoanqbpusrW-jHJZTBlEJCTXYQ%3D%3D&amp;xkcb=SoAN67M3yBvMrRxgi50FbzkdCdPP&amp;fccid=7455773bace145da&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Senior Web Developer</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Los Angeles, CA</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>WebMD</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=bb25fa554fef36ff&amp;bb=OuQwedqDAQudt3QmNRKS9wQnmP1izqYXTFwZj66vN5qgorIazoB15vEUiU_55-WHn_0jXvM1mhMNd52ZRUu8cwIHC7zEYmJiyN828xKiJC8fpe-kwN7IJQ%3D%3D&amp;xkcb=SoBd67M3yBvJiJRSrZ0LbzkdCdPP&amp;fccid=2f7cb114b730b276&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Boise, ID 83702</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Juniper Networks</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=70ea47ea73418bb9&amp;bb=OuQwedqDAQudt3QmNRKS980BPc5Y-wDN5pt4KO0GJnNJnUODcHESPTDiobZsOVMOxwdNScqbMTeIVtVjxvo9YkxWwELBy0p6VnCLMUNiCPyJ-9WWPnPUzA%3D%3D&amp;xkcb=SoDp67M3yBvJiJRSrZ0KbzkdCdPP&amp;fccid=e9e363d6332bc1cd&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>63412R-Software Engineer 2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Sunnyvale, CA 
+(West Murphy area)</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>XLA</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=c301b944534d75ee&amp;bb=OuQwedqDAQudt3QmNRKS93ZQ8T924stvS1-2FOMQwli5uejprAe8f_0RFtOJK1MdkJb05VCXm6xb46LmKLuGN7HjeZJ2kq7_5PBh1kIHgBZ_L3drfOvZWsS03Khd4gSO&amp;xkcb=SoB067M3yBvJiJRSrZ0JbzkdCdPP&amp;fccid=27fbff3452feeaee&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Senior Web Developer</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Arlington, VA 22202</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>HX5, LLC</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=ec5e8f1fc5e8659f&amp;bb=OuQwedqDAQudt3QmNRKS9ygyZ-EGF2drcUNIP2RA2sCYPpUAmMI2Ip-EcaDOsZ9epnlCAe0w2HChKZrYNsYl4VES4TfhS31_7xpyDYPkdhQxYHUVZQIe4hn93C0mjWuZ&amp;xkcb=SoDA67M3yBvJiJRSrZ0IbzkdCdPP&amp;fccid=60e25d98d86a84d8&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Senior Developer</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Huntsville, AL</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Verisk</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=77be5642fa758610&amp;bb=OuQwedqDAQudt3QmNRKS99dTL2a3m-5Sq44YdiTBoAUuVu9jx5BuooWjojp7RPcPWPYFBlrpmzaGQEGV3aWYACUAv-nM6PIn1eLQAJjFxIGGa16D3IhClsgQRBNhLsWB&amp;xkcb=SoBO67M3yBvJiJRSrZ0PbzkdCdPP&amp;fccid=d621f9a5603cfedd&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Senior Software Developer</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Hybrid work in Jersey City, NJ</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
